--- a/BMSHPMS/wwwroot/ExcelTemplate/memorial_bigyellow_5seat_A4.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/memorial_bigyellow_5seat_A4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fei\Desktop\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC61DA99-A076-41F7-8D57-FBD50ABC4AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2787813D-F48E-4F40-8510-D423F2DD7CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
     <numFmt numFmtId="176" formatCode="&quot;Z&quot;000000"/>
     <numFmt numFmtId="177" formatCode="&quot;E&quot;000000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -272,13 +272,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="255"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
   </cellXfs>
@@ -598,10 +598,10 @@
   <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="4.88671875" style="1" customWidth="1"/>
@@ -609,7 +609,7 @@
     <col min="5" max="5" width="4.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="4.88671875" style="3" customWidth="1"/>
     <col min="7" max="7" width="3.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.77734375" style="1" customWidth="1"/>
     <col min="10" max="11" width="2.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="4.77734375" style="1" customWidth="1"/>
@@ -636,7 +636,7 @@
     <col min="42" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" ht="12.75" customHeight="1">
       <c r="A1" s="14"/>
       <c r="F1" s="2"/>
       <c r="H1" s="14"/>
@@ -645,436 +645,444 @@
       <c r="AD1" s="13"/>
       <c r="AE1" s="13"/>
     </row>
-    <row r="2" spans="1:34" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="25.5" customHeight="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="2"/>
       <c r="G2" s="6"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
       <c r="M2" s="5"/>
       <c r="N2" s="6"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
       <c r="T2" s="5"/>
       <c r="U2" s="6"/>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="6"/>
-      <c r="AD2" s="18" t="s">
+      <c r="AD2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
       <c r="AH2" s="5"/>
     </row>
-    <row r="3" spans="1:34" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="25.5" customHeight="1">
       <c r="A3" s="15"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="2"/>
       <c r="G3" s="6"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="5"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
       <c r="T3" s="5"/>
       <c r="U3" s="6"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="7"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
       <c r="AH3" s="5"/>
     </row>
-    <row r="4" spans="1:34" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="22.35" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="2"/>
       <c r="G4" s="6"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
       <c r="T4" s="5"/>
       <c r="U4" s="6"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="7"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:34" ht="22.35" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="2"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="5"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="5"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="17" t="s">
+      <c r="V5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="6"/>
-      <c r="AC5" s="17" t="s">
+      <c r="AC5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
       <c r="AH5" s="5"/>
     </row>
-    <row r="6" spans="1:34" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+    <row r="6" spans="1:34" ht="22.35" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="2"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
       <c r="T6" s="5"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="6"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
       <c r="AH6" s="5"/>
     </row>
-    <row r="7" spans="1:34" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="16" t="s">
+    <row r="7" spans="1:34" ht="22.35" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="16" t="s">
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="16" t="s">
+      <c r="O7" s="16"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="U7" s="6"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="16" t="s">
+      <c r="V7" s="16"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>13</v>
       </c>
       <c r="AB7" s="6"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="16" t="s">
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="16"/>
+    <row r="8" spans="1:34" ht="22.35" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="18"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="18"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="16"/>
-    </row>
-    <row r="9" spans="1:34" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="18"/>
+    </row>
+    <row r="9" spans="1:34" ht="22.35" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="18"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="18"/>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="16"/>
-    </row>
-    <row r="10" spans="1:34" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="18"/>
+    </row>
+    <row r="10" spans="1:34" ht="22.35" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="18"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="18"/>
       <c r="AB10" s="6"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="16"/>
-    </row>
-    <row r="11" spans="1:34" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="18"/>
+    </row>
+    <row r="11" spans="1:34" ht="22.35" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="18"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="18"/>
       <c r="AB11" s="6"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="16"/>
-    </row>
-    <row r="12" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="18"/>
+    </row>
+    <row r="12" spans="1:34" ht="21.75" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="18"/>
       <c r="U12" s="9"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="18"/>
       <c r="AB12" s="8"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="16"/>
-    </row>
-    <row r="13" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="18"/>
+    </row>
+    <row r="13" spans="1:34" ht="21" customHeight="1">
       <c r="A13" s="12"/>
       <c r="H13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="P2:S12"/>
+    <mergeCell ref="W2:Z12"/>
+    <mergeCell ref="AH7:AH12"/>
+    <mergeCell ref="T7:T12"/>
+    <mergeCell ref="V5:V12"/>
+    <mergeCell ref="AC5:AC12"/>
+    <mergeCell ref="AD2:AG12"/>
+    <mergeCell ref="AA7:AA12"/>
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="H5:H12"/>
     <mergeCell ref="O5:O12"/>
@@ -1082,14 +1090,6 @@
     <mergeCell ref="I2:L12"/>
     <mergeCell ref="F7:F12"/>
     <mergeCell ref="M7:M12"/>
-    <mergeCell ref="T7:T12"/>
-    <mergeCell ref="V5:V12"/>
-    <mergeCell ref="AC5:AC12"/>
-    <mergeCell ref="AD2:AG12"/>
-    <mergeCell ref="AA7:AA12"/>
-    <mergeCell ref="P2:S12"/>
-    <mergeCell ref="W2:Z12"/>
-    <mergeCell ref="AH7:AH12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.3125" right="0" top="2.5590551181102366" bottom="0" header="0" footer="0"/>
